--- a/economy/encuestas/regulares/mensuales/emoe/data/fd_emoe_serie2018.xlsx
+++ b/economy/encuestas/regulares/mensuales/emoe/data/fd_emoe_serie2018.xlsx
@@ -627,7 +627,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,21 +649,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -776,6 +769,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -821,13 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -862,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="41">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -882,16 +875,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -899,9 +892,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -915,29 +905,17 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -948,79 +926,55 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1331,12 +1285,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="61.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="65.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="61.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="65.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
@@ -1344,7 +1298,7 @@
       <c r="C1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1363,25 +1317,25 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.875">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="26.399999999999995">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.875">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6"/>
@@ -1390,25 +1344,25 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.600000000000005">
-      <c r="A7" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="25.5">
+      <c r="A7" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30.600000000000005">
-      <c r="A8" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="25.5">
+      <c r="A8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6"/>
@@ -1418,7 +1372,7 @@
       <c r="C9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1429,7 +1383,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1438,7 +1392,7 @@
       <c r="C11" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1447,7 +1401,7 @@
       <c r="C12" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1462,40 +1416,40 @@
       <c r="B14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="14" t="s">
+      <c r="C14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.875">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.8">
-      <c r="A16" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.875">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1503,26 +1457,26 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="40"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1530,13 +1484,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="40"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="6">
@@ -1545,37 +1499,37 @@
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="38.4">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="39" t="s">
         <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="53.4">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1586,7 +1540,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1599,16 +1553,16 @@
       <c r="B29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="34.8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="26" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1617,16 +1571,16 @@
       <c r="B31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="34.8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="26" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1637,16 +1591,16 @@
       <c r="B33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.6">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1655,42 +1609,42 @@
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.6">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -1701,7 +1655,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="25.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -1716,10 +1670,10 @@
       <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="28.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -1730,7 +1684,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="42.6">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1739,16 +1693,16 @@
       <c r="C44" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="22">
+      <c r="A45" s="19">
         <v>7</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="32.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -1759,23 +1713,23 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="34.5">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="22"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="36">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -1786,468 +1740,468 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="38.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="0.6">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="12.75">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="12.75">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="12.75">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="12.75">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="12.75">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="12.75">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="12.75">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="12.75">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="12.75">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="12.75">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="12.75">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="12.75">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="12.75">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="12.75">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="12.75">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="12.75">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="12.75">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="12.75">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="12.75">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="12.75">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="12.75">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="12.75">
-      <c r="A97" s="25"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="12.75">
-      <c r="A98" s="25"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="12.75">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="12.75">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="12.75">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="12.75">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="12.75">
-      <c r="A103" s="25"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="12.75">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="12.75">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="12.75">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="12.75">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="12.75">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="12.75">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="12.75">
-      <c r="A110" s="25"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="12.75">
-      <c r="A111" s="25"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="12.75">
-      <c r="A112" s="25"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="12.75">
-      <c r="A113" s="25"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="12.75">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="12.75">
-      <c r="A115" s="25"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="12.75">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="12.75">
-      <c r="A117" s="25"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="12.75">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="12.75">
-      <c r="A119" s="25"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="12.75">
-      <c r="A120" s="25"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="12.75">
-      <c r="A121" s="25"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="12.75">
-      <c r="A122" s="25"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="12.75">
-      <c r="A123" s="25"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="12.75">
-      <c r="A124" s="25"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="12.75">
-      <c r="A125" s="25"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="12.75">
-      <c r="A126" s="25"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="12.75">
-      <c r="A127" s="25"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="12.75">
-      <c r="A128" s="25"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="12.75">
-      <c r="A129" s="25"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="12.75">
-      <c r="A130" s="25"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="12.75">
-      <c r="A131" s="25"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="12.75">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="12.75">
-      <c r="A133" s="25"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="12.75">
-      <c r="A134" s="25"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="12.75">
-      <c r="A135" s="25"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="12.75">
-      <c r="A136" s="25"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="12.75">
-      <c r="A137" s="25"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="12.75">
-      <c r="A138" s="25"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="12.75">
-      <c r="A139" s="25"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="12.75">
-      <c r="A140" s="25"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="12.75">
-      <c r="A141" s="25"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2281,9 +2235,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="61.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="65.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="61.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="65.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="52.5" customFormat="1" s="1">
@@ -2294,18 +2248,18 @@
       <c r="C1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="40">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2314,54 +2268,54 @@
       <c r="C3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.600000000000005">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="40"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="44.4">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="66">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="40">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2370,90 +2324,90 @@
       <c r="C9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="40"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="33" t="s">
         <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="40"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="40">
+      <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2462,81 +2416,81 @@
       <c r="C19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="40"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="40"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="27">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="27.600000000000005">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="40">
+      <c r="A28" s="6">
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2545,155 +2499,155 @@
       <c r="C28" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="40"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.1">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="40">
+      <c r="A34" s="6">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.1">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="40"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.1">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="40"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.1">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.1">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="40">
+      <c r="A42" s="6">
         <v>6</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="26.399999999999995">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="33" t="s">
         <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="40.8">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="22">
+      <c r="A45" s="19">
         <v>7</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2702,276 +2656,276 @@
       <c r="C45" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="25.8">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="32.4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="43"/>
+      <c r="C47" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="22"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.1">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.1">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="0.6">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="12.75">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="12.75">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="12.75">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="12.75">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="12.75">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="12.75">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="12.75">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="12.75">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="12.75">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="12.75">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="12.75">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="12.75">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="12.75">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="12.75">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="12.75">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="12.75">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="12.75">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="12.75">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="12.75">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="12.75">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="12.75">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="12.75">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="12.75">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="12.75">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="12.75">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="12.75">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="12.75">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3007,9 +2961,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="61.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="65.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="61.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="65.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39" customFormat="1" s="1">
@@ -3020,7 +2974,7 @@
       <c r="C1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3046,7 +3000,7 @@
       <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3057,34 +3011,34 @@
       <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28.8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6">
@@ -3093,13 +3047,13 @@
       <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3107,10 +3061,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="12"/>
@@ -3122,10 +3076,10 @@
       <c r="B12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -3136,7 +3090,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.399999999999995">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3149,16 +3103,16 @@
       <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="25.8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3167,16 +3121,16 @@
       <c r="B17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="6">
@@ -3188,7 +3142,7 @@
       <c r="C19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="12.75">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3199,13 +3153,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6">
@@ -3214,16 +3168,16 @@
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3232,51 +3186,51 @@
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3291,10 +3245,10 @@
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3305,7 +3259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="63.6">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3314,16 +3268,16 @@
       <c r="C33" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="22">
+      <c r="A34" s="19">
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -3334,23 +3288,23 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="45">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="22"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3361,415 +3315,415 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="27.600000000000005">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="0.6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="12.75">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="12.75">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="12.75">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="12.75">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="12.75">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="12.75">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="12.75">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="12.75">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="12.75">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="12.75">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="12.75">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="12.75">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="12.75">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="12.75">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="12.75">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="12.75">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="12.75">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="12.75">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="12.75">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="12.75">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="12.75">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="12.75">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="12.75">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="12.75">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="12.75">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="12.75">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="12.75">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="12.75">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="12.75">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="12.75">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="12.75">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="12.75">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="12.75">
-      <c r="A97" s="25"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="12.75">
-      <c r="A98" s="25"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="12.75">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="12.75">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="12.75">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="12.75">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="12.75">
-      <c r="A103" s="25"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="12.75">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="12.75">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="12.75">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="12.75">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="12.75">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="12.75">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="12.75">
-      <c r="A110" s="25"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="12.75">
-      <c r="A111" s="25"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="12.75">
-      <c r="A112" s="25"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="12.75">
-      <c r="A113" s="25"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="12.75">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="12.75">
-      <c r="A115" s="25"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="12.75">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="12.75">
-      <c r="A117" s="25"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="12.75">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="12.75">
-      <c r="A119" s="25"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3800,9 +3754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="61.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="65.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="61.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="65.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.75" customFormat="1" s="1">
@@ -3859,27 +3813,27 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6">
@@ -3888,10 +3842,10 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3902,7 +3856,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3917,16 +3871,16 @@
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3935,16 +3889,16 @@
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="6">
@@ -3953,10 +3907,10 @@
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="31.125">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -3967,7 +3921,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.125">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3976,16 +3930,16 @@
       <c r="C18" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="25.5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3996,23 +3950,23 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="34.5">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="22"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="36">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4023,118 +3977,118 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="38.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="0.6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="12.75">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
